--- a/Analytics/F1/MultiBookings_f1.xlsx
+++ b/Analytics/F1/MultiBookings_f1.xlsx
@@ -85,12 +85,18 @@
     <t>Clermont</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Marseille</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Strasbourg</t>
   </si>
   <si>
@@ -106,7 +112,7 @@
     <t>Metz</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Le Havre</t>
   </si>
   <si>
     <t>Brest</t>
@@ -118,13 +124,7 @@
     <t>Lens</t>
   </si>
   <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
     <t>Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
   </si>
   <si>
     <t>Paris SG</t>
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>7450.0</v>
+        <v>7750.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7400.0</v>
+        <v>7450.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>7050.0</v>
+        <v>7400.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>6550.0</v>
+        <v>7200.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>6500.0</v>
+        <v>7050.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6400.0</v>
+        <v>6550.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>6300.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>6200.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>6100.0</v>
+        <v>6300.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>5750.0</v>
+        <v>6125.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>5450.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5225.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5150.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="18">
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
         <v>10550.0</v>
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>9350.0</v>
+        <v>10000.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>9050.0</v>
+        <v>9350.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>9000.0</v>
+        <v>9050.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7900.0</v>
+        <v>8800.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +476,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>7900.0</v>
@@ -490,7 +490,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>7700.0</v>
+        <v>7900.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>7000.0</v>
+        <v>7700.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>6900.0</v>
+        <v>7000.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>6200.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>5950.0</v>
@@ -542,7 +542,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
         <v>5600.0</v>
@@ -564,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
         <v>5100.0</v>
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>4100.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>3900.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="18">
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
         <v>3200.0</v>
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>16000.0</v>
+        <v>16250.0</v>
       </c>
       <c r="D3" t="n">
-        <v>470.5882352941176</v>
+        <v>477.94117647058823</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>15750.0</v>
+        <v>16000.0</v>
       </c>
       <c r="D4" t="n">
-        <v>463.2352941176471</v>
+        <v>470.5882352941176</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>15150.0</v>
+        <v>15750.0</v>
       </c>
       <c r="D5" t="n">
-        <v>445.5882352941176</v>
+        <v>463.2352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>14450.0</v>
+        <v>15150.0</v>
       </c>
       <c r="D6" t="n">
-        <v>425.0</v>
+        <v>445.5882352941176</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>14425.0</v>
+        <v>15150.0</v>
       </c>
       <c r="D7" t="n">
-        <v>424.2647058823529</v>
+        <v>445.5882352941176</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>14150.0</v>
+        <v>14450.0</v>
       </c>
       <c r="D8" t="n">
-        <v>416.1764705882353</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>14100.0</v>
+        <v>14425.0</v>
       </c>
       <c r="D9" t="n">
-        <v>414.70588235294116</v>
+        <v>424.2647058823529</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>13650.0</v>
+        <v>14100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>401.47058823529414</v>
+        <v>414.70588235294116</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +773,10 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>13100.0</v>
+        <v>14100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>385.29411764705884</v>
+        <v>414.70588235294116</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>12225.0</v>
+        <v>13700.0</v>
       </c>
       <c r="D12" t="n">
-        <v>359.55882352941177</v>
+        <v>402.94117647058823</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>11400.0</v>
+        <v>13125.0</v>
       </c>
       <c r="D13" t="n">
-        <v>335.29411764705884</v>
+        <v>386.02941176470586</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>11350.0</v>
+        <v>12200.0</v>
       </c>
       <c r="D14" t="n">
-        <v>333.8235294117647</v>
+        <v>358.8235294117647</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>11300.0</v>
+        <v>11400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>332.3529411764706</v>
+        <v>335.29411764705884</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>11150.0</v>
+        <v>11350.0</v>
       </c>
       <c r="D16" t="n">
-        <v>327.94117647058823</v>
+        <v>333.8235294117647</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>11100.0</v>
+        <v>11150.0</v>
       </c>
       <c r="D17" t="n">
-        <v>326.47058823529414</v>
+        <v>327.94117647058823</v>
       </c>
     </row>
     <row r="18">
@@ -868,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>9700.0</v>

--- a/Analytics/F1/MultiBookings_f1.xlsx
+++ b/Analytics/F1/MultiBookings_f1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lorient</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 34</t>
+    <t>SUM("TMultiBookings") / 10</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10950.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>9200.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>7850.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>7750.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>7450.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>7400.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>7200.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>7050.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>6550.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>6500.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>6400.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>6300.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>6125.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>6100.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>5750.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>5450.0</v>
+        <v>950.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>5150.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>3500.0</v>
+        <v>800.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>10550.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>10000.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>9350.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>9050.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>8800.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>7900.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>7900.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>7700.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>7000.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>6900.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>5950.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>5600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>5225.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
-        <v>5100.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>4800.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>4100.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>3550.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>3200.0</v>
+        <v>700.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>20300.0</v>
+        <v>6500.0</v>
       </c>
       <c r="D2" t="n">
-        <v>597.0588235294117</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>16250.0</v>
+        <v>6150.0</v>
       </c>
       <c r="D3" t="n">
-        <v>477.94117647058823</v>
+        <v>615.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>16000.0</v>
+        <v>5850.0</v>
       </c>
       <c r="D4" t="n">
-        <v>470.5882352941176</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>15750.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D5" t="n">
-        <v>463.2352941176471</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>15150.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D6" t="n">
-        <v>445.5882352941176</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>15150.0</v>
+        <v>4850.0</v>
       </c>
       <c r="D7" t="n">
-        <v>445.5882352941176</v>
+        <v>485.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>14450.0</v>
+        <v>4700.0</v>
       </c>
       <c r="D8" t="n">
-        <v>425.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>14425.0</v>
+        <v>4700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>424.2647058823529</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>14100.0</v>
+        <v>4600.0</v>
       </c>
       <c r="D10" t="n">
-        <v>414.70588235294116</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>14100.0</v>
+        <v>4600.0</v>
       </c>
       <c r="D11" t="n">
-        <v>414.70588235294116</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>13700.0</v>
+        <v>4500.0</v>
       </c>
       <c r="D12" t="n">
-        <v>402.94117647058823</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>13125.0</v>
+        <v>4100.0</v>
       </c>
       <c r="D13" t="n">
-        <v>386.02941176470586</v>
+        <v>410.0</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>12200.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D14" t="n">
-        <v>358.8235294117647</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>11400.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D15" t="n">
-        <v>335.29411764705884</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>11350.0</v>
+        <v>3750.0</v>
       </c>
       <c r="D16" t="n">
-        <v>333.8235294117647</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>11150.0</v>
+        <v>3150.0</v>
       </c>
       <c r="D17" t="n">
-        <v>327.94117647058823</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>9700.0</v>
+        <v>2350.0</v>
       </c>
       <c r="D18" t="n">
-        <v>285.29411764705884</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>7050.0</v>
+        <v>2200.0</v>
       </c>
       <c r="D19" t="n">
-        <v>207.35294117647058</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/MultiBookings_f1.xlsx
+++ b/Analytics/F1/MultiBookings_f1.xlsx
@@ -76,55 +76,55 @@
     <t>18</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Toulouse</t>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Paris SG</t>
   </si>
   <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
     <t>Nice</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Nantes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
   </si>
   <si>
     <t>Marseille</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>3600.0</v>
+        <v>7250.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>3400.0</v>
+        <v>4400.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>3000.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2950.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>2900.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>2800.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>2800.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>2600.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>2550.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2200.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>2100.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>2100.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>1800.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>1500.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>1400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>950.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>800.0</v>
+        <v>1450.0</v>
       </c>
     </row>
     <row r="19">
@@ -424,7 +424,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>4400.0</v>
+        <v>8000.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>3900.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>3200.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>3100.0</v>
+        <v>3550.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>3050.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>2400.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>2400.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>2350.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>2200.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>1900.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>1900.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1800.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>1800.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>1450.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>1400.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" t="n">
-        <v>1100.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>700.0</v>
+        <v>1400.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>6500.0</v>
+        <v>12350.0</v>
       </c>
       <c r="D2" t="n">
-        <v>650.0</v>
+        <v>1235.0</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>6150.0</v>
+        <v>10800.0</v>
       </c>
       <c r="D3" t="n">
-        <v>615.0</v>
+        <v>1080.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>5850.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D4" t="n">
-        <v>585.0</v>
+        <v>760.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>5500.0</v>
+        <v>7550.0</v>
       </c>
       <c r="D5" t="n">
-        <v>550.0</v>
+        <v>755.0</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>5000.0</v>
+        <v>6900.0</v>
       </c>
       <c r="D6" t="n">
-        <v>500.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>4850.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0</v>
+        <v>665.0</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>4700.0</v>
+        <v>6550.0</v>
       </c>
       <c r="D8" t="n">
-        <v>470.0</v>
+        <v>655.0</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>4700.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D9" t="n">
-        <v>470.0</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>4600.0</v>
+        <v>5900.0</v>
       </c>
       <c r="D10" t="n">
-        <v>460.0</v>
+        <v>590.0</v>
       </c>
     </row>
     <row r="11">
@@ -773,10 +773,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>4600.0</v>
+        <v>5550.0</v>
       </c>
       <c r="D11" t="n">
-        <v>460.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>4500.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D12" t="n">
-        <v>450.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>4100.0</v>
+        <v>5200.0</v>
       </c>
       <c r="D13" t="n">
-        <v>410.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="14">
@@ -815,10 +815,10 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>4000.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>4000.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D15" t="n">
-        <v>400.0</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>3750.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D16" t="n">
-        <v>375.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>3150.0</v>
+        <v>4550.0</v>
       </c>
       <c r="D17" t="n">
-        <v>315.0</v>
+        <v>455.0</v>
       </c>
     </row>
     <row r="18">
@@ -871,10 +871,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>2350.0</v>
+        <v>4050.0</v>
       </c>
       <c r="D18" t="n">
-        <v>235.0</v>
+        <v>405.0</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>2200.0</v>
+        <v>3350.0</v>
       </c>
       <c r="D19" t="n">
-        <v>220.0</v>
+        <v>335.0</v>
       </c>
     </row>
   </sheetData>
